--- a/DB/00. 컴네 프로젝트_테이블 명세서.xlsx
+++ b/DB/00. 컴네 프로젝트_테이블 명세서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbsgm\Desktop\컴퓨터 네트워크(팀프로젝트)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbsgm\Desktop\컴퓨터 네트워크(팀프로젝트)\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97A3A4C-D398-4297-9E3C-F2D85D775C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA3B566-779B-45F8-AE1F-2F27769AC315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{18D15CF8-B6AB-4A0E-A1E9-A546113EA9E0}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="106">
   <si>
     <t>테이블 명세서를 만들때 기준</t>
   </si>
@@ -434,6 +434,26 @@
   </si>
   <si>
     <t>0:전반, 1:후반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nut null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uni</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -784,63 +804,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,60 +841,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -937,19 +907,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1387,10 +1348,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="11">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1410,15 +1371,15 @@
         <v>27</v>
       </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="18"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="22"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
@@ -1434,15 +1395,15 @@
         <v>28</v>
       </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="23"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="11">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1462,15 +1423,15 @@
         <v>30</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="18"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="12"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1486,13 +1447,13 @@
         <v>75</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="13"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="3" t="s">
         <v>49</v>
       </c>
@@ -1508,15 +1469,15 @@
         <v>74</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="11">
+      <c r="A7" s="14">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1536,17 +1497,17 @@
         <v>37</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="18" t="s">
+      <c r="K7" s="16"/>
+      <c r="L7" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2" t="s">
         <v>51</v>
       </c>
@@ -1562,13 +1523,13 @@
       <c r="I8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="19"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>59</v>
       </c>
@@ -1582,13 +1543,13 @@
         <v>64</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="13"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="3" t="s">
         <v>62</v>
       </c>
@@ -1602,15 +1563,15 @@
         <v>63</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="11">
+      <c r="A11" s="14">
         <v>4</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1630,15 +1591,15 @@
         <v>32</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="18"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1656,13 +1617,13 @@
         <v>30</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="19"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1680,13 +1641,13 @@
         <v>37</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="19"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
@@ -1702,13 +1663,13 @@
         <v>42</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="19"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1724,13 +1685,13 @@
         <v>43</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
@@ -1746,13 +1707,13 @@
         <v>44</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="19"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
@@ -1768,13 +1729,13 @@
         <v>45</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="22"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="8" t="s">
         <v>35</v>
       </c>
@@ -1792,16 +1753,16 @@
       <c r="I18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="23"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="11">
+      <c r="A20" s="14">
         <v>5</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1817,17 +1778,17 @@
         <v>72</v>
       </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="26" t="s">
+      <c r="K20" s="22"/>
+      <c r="L20" s="24" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="22"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="8" t="s">
         <v>70</v>
       </c>
@@ -1841,12 +1802,22 @@
         <v>73</v>
       </c>
       <c r="I21" s="8"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="27"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="L11:L18"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
@@ -1862,16 +1833,6 @@
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="J11:J18"/>
     <mergeCell ref="K11:K18"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1945,10 +1906,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1968,15 +1929,15 @@
         <v>27</v>
       </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="18"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="22"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
@@ -1992,16 +1953,16 @@
         <v>28</v>
       </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="23"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="11">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -2021,15 +1982,15 @@
         <v>37</v>
       </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="18"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="2" t="s">
         <v>51</v>
       </c>
@@ -2047,13 +2008,13 @@
       <c r="I6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>59</v>
       </c>
@@ -2069,13 +2030,13 @@
         <v>64</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2" t="s">
         <v>78</v>
       </c>
@@ -2091,13 +2052,13 @@
         <v>82</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="19"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>79</v>
       </c>
@@ -2113,13 +2074,13 @@
         <v>83</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2" t="s">
         <v>80</v>
       </c>
@@ -2135,13 +2096,13 @@
         <v>84</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="12"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="2" t="s">
         <v>81</v>
       </c>
@@ -2157,13 +2118,13 @@
         <v>85</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="19"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2181,13 +2142,13 @@
       <c r="I12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="19"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="8" t="s">
         <v>62</v>
       </c>
@@ -2203,16 +2164,16 @@
         <v>63</v>
       </c>
       <c r="I13" s="8"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="23"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="11">
+      <c r="A15" s="14">
         <v>3</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -2232,15 +2193,15 @@
         <v>32</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="14"/>
+      <c r="K15" s="16"/>
       <c r="L15" s="28"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
@@ -2259,12 +2220,12 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="15"/>
+      <c r="K16" s="20"/>
       <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="2" t="s">
         <v>69</v>
       </c>
@@ -2281,12 +2242,12 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="15"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="29"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="22"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="8" t="s">
         <v>70</v>
       </c>
@@ -2302,27 +2263,27 @@
         <v>73</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="21"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="17"/>
       <c r="L18" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="J5:J13"/>
+    <mergeCell ref="K5:K13"/>
+    <mergeCell ref="L5:L13"/>
     <mergeCell ref="L15:L18"/>
     <mergeCell ref="J15:J18"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="K15:K18"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="J5:J13"/>
-    <mergeCell ref="K5:K13"/>
-    <mergeCell ref="L5:L13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2395,10 +2356,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -2418,15 +2379,15 @@
         <v>27</v>
       </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="18"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="22"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
@@ -2442,16 +2403,16 @@
         <v>28</v>
       </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="23"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="11">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -2471,15 +2432,15 @@
         <v>37</v>
       </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="18"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="2" t="s">
         <v>51</v>
       </c>
@@ -2497,13 +2458,13 @@
       <c r="I6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>59</v>
       </c>
@@ -2519,13 +2480,13 @@
         <v>64</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2541,13 +2502,13 @@
         <v>30</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="19"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
@@ -2563,13 +2524,13 @@
         <v>86</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
@@ -2587,13 +2548,13 @@
       <c r="I10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="8" t="s">
         <v>62</v>
       </c>
@@ -2609,16 +2570,16 @@
         <v>63</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="23"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="11">
+      <c r="A13" s="14">
         <v>3</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -2638,15 +2599,15 @@
         <v>32</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="14"/>
+      <c r="K13" s="16"/>
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
@@ -2667,12 +2628,12 @@
         <v>90</v>
       </c>
       <c r="J14" s="31"/>
-      <c r="K14" s="15"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="29"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2" t="s">
         <v>69</v>
       </c>
@@ -2689,12 +2650,12 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="31"/>
-      <c r="K15" s="15"/>
+      <c r="K15" s="20"/>
       <c r="L15" s="29"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="22"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="8" t="s">
         <v>70</v>
       </c>
@@ -2710,27 +2671,27 @@
         <v>73</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="21"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="17"/>
       <c r="L16" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="J5:J11"/>
+    <mergeCell ref="K5:K11"/>
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="K13:K16"/>
     <mergeCell ref="L13:L16"/>
     <mergeCell ref="J13:J16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="J5:J11"/>
-    <mergeCell ref="K5:K11"/>
-    <mergeCell ref="L5:L11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2742,10 +2703,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2803,10 +2764,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -2826,15 +2787,15 @@
         <v>27</v>
       </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="18"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="22"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
@@ -2850,297 +2811,365 @@
         <v>28</v>
       </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="23"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="11">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="18"/>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="19"/>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="32">
         <v>0</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="G8" s="32"/>
+      <c r="H8" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="2" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="2" t="s">
+      <c r="I11" s="2"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="2" t="s">
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="19"/>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="36" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D14" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E14" s="32">
         <v>0</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36" t="s">
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I14" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="8" t="s">
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E15" s="8">
         <v>0</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="23"/>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11">
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="14">
         <v>3</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="28"/>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="2" t="s">
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="22"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="8" t="s">
+      <c r="I18" s="2"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="30"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="K5:K12"/>
-    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="J6:J15"/>
+    <mergeCell ref="K6:K15"/>
+    <mergeCell ref="L6:L15"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="A5:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
